--- a/Opencart_Cucumber/testData/Opencart_LoginData.xlsx
+++ b/Opencart_Cucumber/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Seleniumwebdriver\Opencart_Cucumber\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosha\git\repository2\Opencart_Cucumber\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B494A-DD82-45AB-BE4F-4CEBD63D153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97E712-D8FC-4421-A92E-5B6C3AC90F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -72,16 +72,13 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>roshan.shaik1@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajiya@13</t>
-  </si>
-  <si>
-    <t>roshanbi.shaik1@gmail.com</t>
-  </si>
-  <si>
     <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>test@gmail.con</t>
+  </si>
+  <si>
+    <t>tester@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,10 +507,10 @@
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -565,7 +562,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
